--- a/TPG.xlsx
+++ b/TPG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD24100D-9714-4D2F-8DFA-1DDC34983C98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0613256B-BD12-4ED9-8015-CFF68F5940B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A24F320F-2282-4844-80AE-6D6359CB7391}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A24F320F-2282-4844-80AE-6D6359CB7391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,14 +139,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,17 +473,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,61 +493,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TPG.xlsx
+++ b/TPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0613256B-BD12-4ED9-8015-CFF68F5940B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA21AB2-CB5A-43F3-8DF4-8B8A3FA14E19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A24F320F-2282-4844-80AE-6D6359CB7391}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Participant</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>C, C++, C#, HTML, CSS, PHP, JavaScript, Python, Java, SQL</t>
+  </si>
+  <si>
+    <t>C, C#, Java, Ruby, Python, SQL, PHP</t>
+  </si>
+  <si>
+    <t>html, CSS, Javascript, Java, PHP, SQL, C++</t>
+  </si>
+  <si>
+    <t>C, C++, HTML, CSS, SQL, Java</t>
+  </si>
+  <si>
+    <t>C, C++, Java, SQL, html, css, php, python</t>
+  </si>
+  <si>
+    <t>Java, Python, SQL, Html, CSS, JavaScript, Ruby, PHP, Angular, Git, Power BI, AWS, Google Cloud.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +170,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F7EBC-41B1-46CE-A56A-0C66DE4FAC3B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -511,7 +529,9 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -520,7 +540,9 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -529,7 +551,9 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -538,7 +562,9 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -547,7 +573,9 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
